--- a/output/instance_SMALL_scenario_2/dual_variables_iteration13.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration13.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5772552583711261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3139559547657728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04331436066639925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.050610163484956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2805580694468595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1.101843512913058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3667164876938847</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -733,15 +733,15 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05155710748486497</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2595341200445756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3417025129419481</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06745482706660612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -829,7 +829,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.42667915773793</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -904,15 +904,15 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2463479964983428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2582970617454409</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1.022046607018271</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3.421654390927751</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9261889337683881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2883726558349656</v>
+        <v>-17.91914378767151</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3722392.407974487</v>
+        <v>45473778.18623909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>248457.9770892955</v>
+        <v>31560933.12031164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>152276.7806049993</v>
+        <v>1001662.822740756</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration13.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration13.xlsx
@@ -557,10 +557,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.05412794201161033</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03586158011550228</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +605,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1.185135361747168</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.2640642615044496</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.4131639868588319</v>
       </c>
     </row>
     <row r="24">
@@ -629,10 +629,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.2162527072055038</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.07835848448175436</v>
       </c>
     </row>
     <row r="26">
@@ -645,10 +645,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.09515418782713028</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.1041391036055482</v>
       </c>
     </row>
     <row r="28">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.1644086401790201</v>
       </c>
     </row>
     <row r="42">
@@ -805,7 +805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.006629605030329028</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.1155405216694803</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.2502207903436298</v>
       </c>
     </row>
     <row r="50">
@@ -840,12 +840,12 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.0860122782694944</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477312</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1.022046607018271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>3.421654390927751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.563948174827347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-17.91914378767151</v>
+        <v>-0.5047623472507067</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45473778.18623909</v>
+        <v>3935940.064094177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31560933.12031164</v>
+        <v>4594514.000345765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1001662.822740756</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
